--- a/production/tbs/templates/imt_masterlist.xlsx
+++ b/production/tbs/templates/imt_masterlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C3B41-32D4-49A2-BAED-A8EEC07236D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2DE4C-D2EB-471B-995E-BE6216E38175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_A1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -174,7 +174,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -425,48 +425,63 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -484,21 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -847,91 +847,91 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="5" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
-    <col min="13" max="13" width="46.85546875" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="5" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" customWidth="1"/>
+    <col min="13" max="13" width="46.88671875" customWidth="1"/>
+    <col min="14" max="14" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -969,58 +969,58 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="29"/>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="11" t="s">
         <v>41</v>
       </c>
@@ -1031,48 +1031,48 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <f>ROW()-9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f>ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1109,9 +1109,9 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1181,14 +1181,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>

--- a/production/tbs/templates/imt_masterlist.xlsx
+++ b/production/tbs/templates/imt_masterlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2DE4C-D2EB-471B-995E-BE6216E38175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE1D4E-3181-4180-9856-09263FBDEE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_A1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>This sheet was hidden in the template, and it becomes visible.</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>[a.date_conducted]</t>
+  </si>
+  <si>
+    <t>NAME OF M/CL</t>
+  </si>
+  <si>
+    <t>[a.casemanamer_name]</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,22 +853,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="5" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="29.88671875" customWidth="1"/>
-    <col min="13" max="13" width="46.88671875" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="5" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -876,8 +886,9 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
@@ -894,8 +905,9 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
@@ -930,8 +943,9 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -946,13 +960,14 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
@@ -966,10 +981,11 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
@@ -1008,8 +1024,9 @@
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -1028,10 +1045,13 @@
         <v>42</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f>ROW()-8</f>
         <v>1</v>
@@ -1066,22 +1086,25 @@
       <c r="K9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="37" t="s">
         <v>44</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1089,7 +1112,7 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
@@ -1109,9 +1132,9 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1181,14 +1204,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
